--- a/earlywarning-pom/earlywarning-config/src/baf-instances/26_Inst_Matrix_Default_BIB.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/26_Inst_Matrix_Default_BIB.xlsx
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="129">
   <si>
     <t>Matrix</t>
   </si>
@@ -528,6 +528,9 @@
   </si>
   <si>
     <t>MXMD_DEFAULT-WS_BIB_RETAIL_DEFAULT_MATRIX_15</t>
+  </si>
+  <si>
+    <t>LIGHT GREEN</t>
   </si>
 </sst>
 </file>
@@ -2435,7 +2438,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2554,7 +2557,7 @@
         <v>5.4699999999999999E-2</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -2650,7 +2653,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -2746,7 +2749,7 @@
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -2842,7 +2845,7 @@
         <v>0.17130000000000001</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/26_Inst_Matrix_Default_BIB.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/26_Inst_Matrix_Default_BIB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13050" yWindow="0" windowWidth="20490" windowHeight="7695" tabRatio="739" activeTab="4"/>
+    <workbookView xWindow="13050" yWindow="0" windowWidth="20490" windowHeight="7695" tabRatio="739" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="c Matrix_Model_Threshold" sheetId="7" r:id="rId5"/>
     <sheet name="Fields definition" sheetId="8" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'c Matrix_Bin'!$A$2:$I$34</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -338,9 +341,6 @@
     <t>ORANGE</t>
   </si>
   <si>
-    <t>YELLOW</t>
-  </si>
-  <si>
     <t>GREEN</t>
   </si>
   <si>
@@ -531,6 +531,9 @@
   </si>
   <si>
     <t>LIGHT GREEN</t>
+  </si>
+  <si>
+    <t>LIGHT_GREEN</t>
   </si>
 </sst>
 </file>
@@ -1199,10 +1202,10 @@
         <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
@@ -1210,7 +1213,7 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
         <v>59</v>
@@ -1235,7 +1238,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
         <v>59</v>
@@ -1259,10 +1262,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,7 +1321,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1325,47 +1329,47 @@
         <v>58</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="I3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>63</v>
@@ -1374,25 +1378,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>62</v>
@@ -1401,28 +1405,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I6" s="5">
         <v>3</v>
@@ -1433,47 +1437,47 @@
         <v>58</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="I7" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>63</v>
@@ -1482,25 +1486,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>62</v>
@@ -1509,28 +1513,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="5">
         <v>7</v>
@@ -1541,47 +1545,47 @@
         <v>58</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="I11" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>63</v>
@@ -1590,25 +1594,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>62</v>
@@ -1617,25 +1621,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>62</v>
@@ -1644,28 +1648,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I15" s="5">
         <v>12</v>
@@ -1676,47 +1680,47 @@
         <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="I16" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>63</v>
@@ -1725,25 +1729,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>62</v>
@@ -1757,47 +1761,47 @@
         <v>58</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="I19" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>63</v>
@@ -1806,25 +1810,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>62</v>
@@ -1833,28 +1837,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="H22" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I22" s="6">
         <v>3</v>
@@ -1865,47 +1869,47 @@
         <v>58</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="I23" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>63</v>
@@ -1914,25 +1918,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>62</v>
@@ -1941,28 +1945,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I26" s="6">
         <v>7</v>
@@ -1973,47 +1977,47 @@
         <v>58</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="I27" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>63</v>
@@ -2022,25 +2026,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>62</v>
@@ -2049,25 +2053,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>62</v>
@@ -2076,28 +2080,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I31" s="6">
         <v>12</v>
@@ -2108,47 +2112,47 @@
         <v>58</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="I32" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>63</v>
@@ -2157,25 +2161,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>62</v>
@@ -2185,6 +2189,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:I34">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="YELLOW"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A3:I18">
     <sortCondition ref="I3:I18"/>
   </sortState>
@@ -2252,17 +2263,17 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -2273,17 +2284,17 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -2294,17 +2305,17 @@
         <v>58</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5" s="6" t="b">
         <v>0</v>
@@ -2315,17 +2326,17 @@
         <v>58</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="G6" s="6" t="b">
         <v>1</v>
@@ -2391,19 +2402,19 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" t="s">
-        <v>98</v>
-      </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2411,19 +2422,19 @@
         <v>58</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2437,7 +2448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -2485,7 +2496,7 @@
         <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -2493,14 +2504,14 @@
         <v>58</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="10">
         <v>0.2404</v>
@@ -2517,14 +2528,14 @@
         <v>58</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" s="10">
         <v>5.4699999999999999E-2</v>
@@ -2541,14 +2552,14 @@
         <v>58</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="10">
         <v>1.55E-2</v>
@@ -2557,7 +2568,7 @@
         <v>5.4699999999999999E-2</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -2565,14 +2576,14 @@
         <v>58</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="10">
         <v>0</v>
@@ -2581,7 +2592,7 @@
         <v>1.55E-2</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -2589,14 +2600,14 @@
         <v>58</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="9">
         <v>0.16569999999999999</v>
@@ -2613,14 +2624,14 @@
         <v>58</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="9">
         <v>9.5000000000000001E-2</v>
@@ -2637,14 +2648,14 @@
         <v>58</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="9">
         <v>4.0599999999999997E-2</v>
@@ -2653,7 +2664,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -2661,14 +2672,14 @@
         <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="9">
         <v>0</v>
@@ -2677,7 +2688,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -2685,14 +2696,14 @@
         <v>58</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="6">
         <v>0.43619999999999998</v>
@@ -2709,14 +2720,14 @@
         <v>58</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="6">
         <v>6.9199999999999998E-2</v>
@@ -2733,14 +2744,14 @@
         <v>58</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="6">
         <v>1.61E-2</v>
@@ -2749,7 +2760,7 @@
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -2757,14 +2768,14 @@
         <v>58</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -2773,7 +2784,7 @@
         <v>1.61E-2</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -2781,14 +2792,14 @@
         <v>58</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F15" s="9">
         <v>0.6966</v>
@@ -2805,14 +2816,14 @@
         <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F16" s="9">
         <v>0.17130000000000001</v>
@@ -2829,14 +2840,14 @@
         <v>58</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F17" s="9">
         <v>0.111</v>
@@ -2845,7 +2856,7 @@
         <v>0.17130000000000001</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -2853,14 +2864,14 @@
         <v>58</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F18" s="9">
         <v>0</v>
@@ -2869,7 +2880,7 @@
         <v>0.111</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/26_Inst_Matrix_Default_BIB.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/26_Inst_Matrix_Default_BIB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13050" yWindow="0" windowWidth="20490" windowHeight="7695" tabRatio="739" activeTab="1"/>
+    <workbookView xWindow="13050" yWindow="0" windowWidth="20490" windowHeight="7695" tabRatio="739" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -605,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -621,6 +621,7 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="8"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1265,7 +1266,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -2448,8 +2449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2458,7 +2459,9 @@
     <col min="2" max="3" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.3">
@@ -2516,8 +2519,8 @@
       <c r="F3" s="10">
         <v>0.2404</v>
       </c>
-      <c r="G3" s="10">
-        <v>1</v>
+      <c r="G3" s="11">
+        <v>1000</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>62</v>
@@ -2540,7 +2543,7 @@
       <c r="F4" s="10">
         <v>5.4699999999999999E-2</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>0.2404</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -2564,7 +2567,7 @@
       <c r="F5" s="10">
         <v>1.55E-2</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>5.4699999999999999E-2</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -2588,7 +2591,7 @@
       <c r="F6" s="10">
         <v>0</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>1.55E-2</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -2612,8 +2615,8 @@
       <c r="F7" s="9">
         <v>0.16569999999999999</v>
       </c>
-      <c r="G7" s="9">
-        <v>1</v>
+      <c r="G7" s="11">
+        <v>1000</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>62</v>
@@ -2709,7 +2712,7 @@
         <v>0.43619999999999998</v>
       </c>
       <c r="G11" s="6">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>62</v>
@@ -2804,8 +2807,8 @@
       <c r="F15" s="9">
         <v>0.6966</v>
       </c>
-      <c r="G15" s="9">
-        <v>1</v>
+      <c r="G15" s="11">
+        <v>1000</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>62</v>
